--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:U501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -444,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -455,10 +455,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
@@ -466,7 +466,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>436</v>
+      </c>
+      <c r="C5" t="n">
+        <v>426</v>
       </c>
     </row>
     <row r="6">
@@ -474,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -485,10 +488,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
@@ -496,10 +499,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="D8" t="n">
+        <v>411</v>
+      </c>
+      <c r="E8" t="n">
+        <v>454</v>
+      </c>
+      <c r="F8" t="n">
+        <v>254</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +522,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>126</v>
+      </c>
+      <c r="E9" t="n">
+        <v>110</v>
+      </c>
+      <c r="F9" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="10">
@@ -518,16 +542,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>371</v>
+      </c>
+      <c r="G10" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +565,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>337</v>
+      </c>
+      <c r="C11" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="12">
@@ -543,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
@@ -554,7 +587,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +601,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +609,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>265</v>
+      </c>
+      <c r="D15" t="n">
+        <v>135</v>
+      </c>
+      <c r="E15" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -584,10 +626,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>290</v>
+      </c>
+      <c r="D16" t="n">
+        <v>121</v>
+      </c>
+      <c r="E16" t="n">
+        <v>147</v>
+      </c>
+      <c r="F16" t="n">
+        <v>74</v>
+      </c>
+      <c r="G16" t="n">
+        <v>440</v>
+      </c>
+      <c r="H16" t="n">
+        <v>260</v>
+      </c>
+      <c r="I16" t="n">
+        <v>109</v>
+      </c>
+      <c r="J16" t="n">
+        <v>481</v>
+      </c>
+      <c r="K16" t="n">
+        <v>457</v>
+      </c>
+      <c r="L16" t="n">
+        <v>266</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>101</v>
+      </c>
+      <c r="O16" t="n">
+        <v>190</v>
+      </c>
+      <c r="P16" t="n">
+        <v>271</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>311</v>
+      </c>
+      <c r="S16" t="n">
+        <v>123</v>
+      </c>
+      <c r="T16" t="n">
+        <v>216</v>
+      </c>
+      <c r="U16" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="17">
@@ -597,13 +693,19 @@
       <c r="B17" t="n">
         <v>92</v>
       </c>
+      <c r="C17" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>467</v>
       </c>
     </row>
     <row r="19">
@@ -611,22 +713,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>44</v>
-      </c>
-      <c r="E19" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" t="n">
-        <v>37</v>
-      </c>
-      <c r="G19" t="n">
-        <v>79</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20">
@@ -634,7 +724,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +735,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>65</v>
+        <v>410</v>
+      </c>
+      <c r="C21" t="n">
+        <v>69</v>
+      </c>
+      <c r="D21" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="22">
@@ -650,19 +749,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>336</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>91</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23">
@@ -670,7 +763,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>81</v>
+      </c>
+      <c r="E23" t="n">
+        <v>166</v>
+      </c>
+      <c r="F23" t="n">
+        <v>430</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22</v>
+      </c>
+      <c r="H23" t="n">
+        <v>223</v>
+      </c>
+      <c r="I23" t="n">
+        <v>280</v>
+      </c>
+      <c r="J23" t="n">
+        <v>142</v>
+      </c>
+      <c r="K23" t="n">
+        <v>44</v>
+      </c>
+      <c r="L23" t="n">
+        <v>108</v>
+      </c>
+      <c r="M23" t="n">
+        <v>333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>413</v>
+      </c>
+      <c r="O23" t="n">
+        <v>72</v>
+      </c>
+      <c r="P23" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -678,10 +813,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25">
@@ -689,10 +824,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>150</v>
+      </c>
+      <c r="D25" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="26">
@@ -700,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27">
@@ -711,10 +849,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D27" t="n">
+        <v>293</v>
+      </c>
+      <c r="E27" t="n">
+        <v>169</v>
+      </c>
+      <c r="F27" t="n">
+        <v>212</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>456</v>
+      </c>
+      <c r="I27" t="n">
+        <v>188</v>
+      </c>
+      <c r="J27" t="n">
+        <v>261</v>
+      </c>
+      <c r="K27" t="n">
+        <v>186</v>
+      </c>
+      <c r="L27" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -722,10 +887,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>170</v>
+      </c>
+      <c r="D28" t="n">
+        <v>229</v>
+      </c>
+      <c r="E28" t="n">
+        <v>352</v>
+      </c>
+      <c r="F28" t="n">
+        <v>434</v>
+      </c>
+      <c r="G28" t="n">
+        <v>244</v>
+      </c>
+      <c r="H28" t="n">
+        <v>438</v>
+      </c>
+      <c r="I28" t="n">
+        <v>373</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>272</v>
+      </c>
+      <c r="L28" t="n">
+        <v>341</v>
+      </c>
+      <c r="M28" t="n">
+        <v>486</v>
+      </c>
+      <c r="N28" t="n">
+        <v>408</v>
+      </c>
+      <c r="O28" t="n">
+        <v>328</v>
+      </c>
+      <c r="P28" t="n">
+        <v>491</v>
       </c>
     </row>
     <row r="29">
@@ -733,10 +937,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>460</v>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -744,10 +954,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>296</v>
+      </c>
+      <c r="D30" t="n">
+        <v>270</v>
+      </c>
+      <c r="E30" t="n">
+        <v>378</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>435</v>
+      </c>
+      <c r="H30" t="n">
+        <v>245</v>
+      </c>
+      <c r="I30" t="n">
+        <v>51</v>
+      </c>
+      <c r="J30" t="n">
+        <v>443</v>
+      </c>
+      <c r="K30" t="n">
+        <v>479</v>
       </c>
     </row>
     <row r="31">
@@ -755,10 +989,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="C31" t="n">
-        <v>78</v>
+        <v>472</v>
+      </c>
+      <c r="D31" t="n">
+        <v>80</v>
+      </c>
+      <c r="E31" t="n">
+        <v>207</v>
+      </c>
+      <c r="F31" t="n">
+        <v>117</v>
+      </c>
+      <c r="G31" t="n">
+        <v>217</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -766,10 +1015,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="D32" t="n">
+        <v>54</v>
+      </c>
+      <c r="E32" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="33">
@@ -777,10 +1032,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="C33" t="n">
-        <v>75</v>
+        <v>227</v>
+      </c>
+      <c r="D33" t="n">
+        <v>218</v>
+      </c>
+      <c r="E33" t="n">
+        <v>274</v>
+      </c>
+      <c r="F33" t="n">
+        <v>189</v>
+      </c>
+      <c r="G33" t="n">
+        <v>151</v>
+      </c>
+      <c r="H33" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="34">
@@ -788,10 +1058,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>394</v>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35">
@@ -799,13 +1069,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C35" t="n">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>342</v>
+      </c>
+      <c r="G35" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -813,10 +1092,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>53</v>
+        <v>492</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>415</v>
+      </c>
+      <c r="D36" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="37">
@@ -824,10 +1106,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="C37" t="n">
-        <v>93</v>
+        <v>180</v>
+      </c>
+      <c r="D37" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="38">
@@ -835,10 +1120,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>194</v>
+      </c>
+      <c r="D38" t="n">
+        <v>313</v>
+      </c>
+      <c r="E38" t="n">
+        <v>310</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -846,7 +1140,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>432</v>
+      </c>
+      <c r="C39" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -854,7 +1151,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>17</v>
+        <v>209</v>
+      </c>
+      <c r="C40" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="41">
@@ -862,7 +1162,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>28</v>
+        <v>157</v>
+      </c>
+      <c r="C41" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="42">
@@ -870,10 +1173,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C42" t="n">
-        <v>89</v>
+        <v>498</v>
+      </c>
+      <c r="D42" t="n">
+        <v>148</v>
+      </c>
+      <c r="E42" t="n">
+        <v>43</v>
+      </c>
+      <c r="F42" t="n">
+        <v>241</v>
+      </c>
+      <c r="G42" t="n">
+        <v>249</v>
+      </c>
+      <c r="H42" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="43">
@@ -881,10 +1199,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
+        <v>452</v>
       </c>
       <c r="C43" t="n">
-        <v>38</v>
+        <v>323</v>
+      </c>
+      <c r="D43" t="n">
+        <v>281</v>
+      </c>
+      <c r="E43" t="n">
+        <v>284</v>
+      </c>
+      <c r="F43" t="n">
+        <v>288</v>
+      </c>
+      <c r="G43" t="n">
+        <v>487</v>
       </c>
     </row>
     <row r="44">
@@ -892,10 +1222,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>404</v>
+      </c>
+      <c r="D44" t="n">
+        <v>143</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="45">
@@ -903,7 +1248,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>428</v>
+      </c>
+      <c r="C45" t="n">
+        <v>423</v>
       </c>
     </row>
     <row r="46">
@@ -911,7 +1259,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>35</v>
+        <v>219</v>
+      </c>
+      <c r="C46" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -919,10 +1270,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>422</v>
       </c>
     </row>
     <row r="48">
@@ -930,7 +1284,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="C48" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="49">
@@ -938,7 +1295,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -946,7 +1306,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C50" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="51">
@@ -954,10 +1317,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>471</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -965,10 +1331,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
@@ -976,232 +1342,3090 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>68</v>
+        <v>366</v>
+      </c>
+      <c r="C53" t="n">
+        <v>308</v>
+      </c>
+      <c r="D53" t="n">
+        <v>295</v>
+      </c>
+      <c r="E53" t="n">
+        <v>384</v>
+      </c>
+      <c r="F53" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
+      <c r="B54" t="n">
+        <v>324</v>
+      </c>
+      <c r="C54" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
+      <c r="B55" t="n">
+        <v>370</v>
+      </c>
+      <c r="C55" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
+      <c r="B56" t="n">
+        <v>178</v>
+      </c>
+      <c r="C56" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
+      <c r="B57" t="n">
+        <v>320</v>
+      </c>
+      <c r="C57" t="n">
+        <v>496</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
+      <c r="B58" t="n">
+        <v>420</v>
+      </c>
+      <c r="C58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
+      <c r="B59" t="n">
+        <v>316</v>
+      </c>
+      <c r="C59" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
+      <c r="B60" t="n">
+        <v>47</v>
+      </c>
+      <c r="C60" t="n">
+        <v>344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
+      <c r="B61" t="n">
+        <v>483</v>
+      </c>
+      <c r="C61" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
+      <c r="B62" t="n">
+        <v>106</v>
+      </c>
+      <c r="C62" t="n">
+        <v>357</v>
+      </c>
+      <c r="D62" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
+      <c r="B63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C63" t="n">
+        <v>447</v>
+      </c>
+      <c r="D63" t="n">
+        <v>463</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63</v>
       </c>
+      <c r="B64" t="n">
+        <v>301</v>
+      </c>
+      <c r="C64" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
+      <c r="B65" t="n">
+        <v>164</v>
+      </c>
+      <c r="C65" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
+      <c r="B66" t="n">
+        <v>446</v>
+      </c>
+      <c r="C66" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
+      <c r="B67" t="n">
+        <v>84</v>
+      </c>
+      <c r="C67" t="n">
+        <v>105</v>
+      </c>
+      <c r="D67" t="n">
+        <v>490</v>
+      </c>
+      <c r="E67" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
+      <c r="B68" t="n">
+        <v>88</v>
+      </c>
+      <c r="C68" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
+      <c r="B69" t="n">
+        <v>469</v>
+      </c>
+      <c r="C69" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>69</v>
       </c>
+      <c r="B70" t="n">
+        <v>279</v>
+      </c>
+      <c r="C70" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>70</v>
       </c>
+      <c r="B71" t="n">
+        <v>297</v>
+      </c>
+      <c r="C71" t="n">
+        <v>298</v>
+      </c>
+      <c r="D71" t="n">
+        <v>360</v>
+      </c>
+      <c r="E71" t="n">
+        <v>304</v>
+      </c>
+      <c r="F71" t="n">
+        <v>168</v>
+      </c>
+      <c r="G71" t="n">
+        <v>103</v>
+      </c>
+      <c r="H71" t="n">
+        <v>107</v>
+      </c>
+      <c r="I71" t="n">
+        <v>114</v>
+      </c>
+      <c r="J71" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>71</v>
       </c>
+      <c r="B72" t="n">
+        <v>289</v>
+      </c>
+      <c r="C72" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>72</v>
       </c>
+      <c r="B73" t="n">
+        <v>451</v>
+      </c>
+      <c r="C73" t="n">
+        <v>141</v>
+      </c>
+      <c r="D73" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>73</v>
       </c>
+      <c r="B74" t="n">
+        <v>478</v>
+      </c>
+      <c r="C74" t="n">
+        <v>122</v>
+      </c>
+      <c r="D74" t="n">
+        <v>448</v>
+      </c>
+      <c r="E74" t="n">
+        <v>202</v>
+      </c>
+      <c r="F74" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>74</v>
       </c>
+      <c r="B75" t="n">
+        <v>473</v>
+      </c>
+      <c r="C75" t="n">
+        <v>485</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>75</v>
       </c>
+      <c r="B76" t="n">
+        <v>343</v>
+      </c>
+      <c r="C76" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>76</v>
       </c>
+      <c r="B77" t="n">
+        <v>347</v>
+      </c>
+      <c r="C77" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>77</v>
       </c>
+      <c r="B78" t="n">
+        <v>359</v>
+      </c>
+      <c r="C78" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>78</v>
       </c>
+      <c r="B79" t="n">
+        <v>382</v>
+      </c>
+      <c r="C79" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>79</v>
       </c>
+      <c r="B80" t="n">
+        <v>499</v>
+      </c>
+      <c r="C80" t="n">
+        <v>68</v>
+      </c>
+      <c r="D80" t="n">
+        <v>197</v>
+      </c>
+      <c r="E80" t="n">
+        <v>322</v>
+      </c>
+      <c r="F80" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>80</v>
       </c>
+      <c r="B81" t="n">
+        <v>433</v>
+      </c>
+      <c r="C81" t="n">
+        <v>353</v>
+      </c>
+      <c r="D81" t="n">
+        <v>380</v>
+      </c>
+      <c r="E81" t="n">
+        <v>269</v>
+      </c>
+      <c r="F81" t="n">
+        <v>199</v>
+      </c>
+      <c r="G81" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>81</v>
       </c>
+      <c r="B82" t="n">
+        <v>389</v>
+      </c>
+      <c r="C82" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>82</v>
       </c>
+      <c r="B83" t="n">
+        <v>292</v>
+      </c>
+      <c r="C83" t="n">
+        <v>437</v>
+      </c>
+      <c r="D83" t="n">
+        <v>198</v>
+      </c>
+      <c r="E83" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>83</v>
       </c>
+      <c r="B84" t="n">
+        <v>154</v>
+      </c>
+      <c r="C84" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>84</v>
       </c>
+      <c r="B85" t="n">
+        <v>36</v>
+      </c>
+      <c r="C85" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>85</v>
       </c>
+      <c r="B86" t="n">
+        <v>115</v>
+      </c>
+      <c r="C86" t="n">
+        <v>383</v>
+      </c>
+      <c r="D86" t="n">
+        <v>431</v>
+      </c>
+      <c r="E86" t="n">
+        <v>159</v>
+      </c>
+      <c r="F86" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>86</v>
       </c>
+      <c r="B87" t="n">
+        <v>50</v>
+      </c>
+      <c r="C87" t="n">
+        <v>187</v>
+      </c>
+      <c r="D87" t="n">
+        <v>453</v>
+      </c>
+      <c r="E87" t="n">
+        <v>445</v>
+      </c>
+      <c r="F87" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>87</v>
       </c>
+      <c r="B88" t="n">
+        <v>331</v>
+      </c>
+      <c r="C88" t="n">
+        <v>418</v>
+      </c>
+      <c r="D88" t="n">
+        <v>205</v>
+      </c>
+      <c r="E88" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>88</v>
       </c>
+      <c r="B89" t="n">
+        <v>367</v>
+      </c>
+      <c r="C89" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>89</v>
       </c>
+      <c r="B90" t="n">
+        <v>18</v>
+      </c>
+      <c r="C90" t="n">
+        <v>38</v>
+      </c>
+      <c r="D90" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>90</v>
       </c>
+      <c r="B91" t="n">
+        <v>477</v>
+      </c>
+      <c r="C91" t="n">
+        <v>282</v>
+      </c>
+      <c r="D91" t="n">
+        <v>30</v>
+      </c>
+      <c r="E91" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>91</v>
       </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>42</v>
+      </c>
+      <c r="D92" t="n">
+        <v>226</v>
+      </c>
+      <c r="E92" t="n">
+        <v>176</v>
+      </c>
+      <c r="F92" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>92</v>
       </c>
+      <c r="B93" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>93</v>
       </c>
+      <c r="B94" t="n">
+        <v>155</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>94</v>
       </c>
+      <c r="B95" t="n">
+        <v>399</v>
+      </c>
+      <c r="C95" t="n">
+        <v>40</v>
+      </c>
+      <c r="D95" t="n">
+        <v>234</v>
+      </c>
+      <c r="E95" t="n">
+        <v>214</v>
+      </c>
+      <c r="F95" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>95</v>
       </c>
+      <c r="B96" t="n">
+        <v>466</v>
+      </c>
+      <c r="C96" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>96</v>
       </c>
+      <c r="B97" t="n">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>240</v>
+      </c>
+      <c r="D97" t="n">
+        <v>332</v>
+      </c>
+      <c r="E97" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>476</v>
+      </c>
+      <c r="C98" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>193</v>
+      </c>
+      <c r="C99" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>340</v>
+      </c>
+      <c r="C100" t="n">
+        <v>220</v>
+      </c>
+      <c r="D100" t="n">
+        <v>253</v>
+      </c>
+      <c r="E100" t="n">
+        <v>90</v>
+      </c>
+      <c r="F100" t="n">
+        <v>442</v>
+      </c>
+      <c r="G100" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>275</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>133</v>
+      </c>
+      <c r="C102" t="n">
+        <v>97</v>
+      </c>
+      <c r="D102" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>113</v>
+      </c>
+      <c r="C104" t="n">
+        <v>27</v>
+      </c>
+      <c r="D104" t="n">
+        <v>326</v>
+      </c>
+      <c r="E104" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>165</v>
+      </c>
+      <c r="C105" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>461</v>
+      </c>
+      <c r="C106" t="n">
+        <v>459</v>
+      </c>
+      <c r="D106" t="n">
+        <v>259</v>
+      </c>
+      <c r="E106" t="n">
+        <v>171</v>
+      </c>
+      <c r="F106" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>307</v>
+      </c>
+      <c r="C107" t="n">
+        <v>61</v>
+      </c>
+      <c r="D107" t="n">
+        <v>351</v>
+      </c>
+      <c r="E107" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>131</v>
+      </c>
+      <c r="C108" t="n">
+        <v>475</v>
+      </c>
+      <c r="D108" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>364</v>
+      </c>
+      <c r="C110" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>315</v>
+      </c>
+      <c r="C111" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>363</v>
+      </c>
+      <c r="C112" t="n">
+        <v>287</v>
+      </c>
+      <c r="D112" t="n">
+        <v>362</v>
+      </c>
+      <c r="E112" t="n">
+        <v>175</v>
+      </c>
+      <c r="F112" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>127</v>
+      </c>
+      <c r="C113" t="n">
+        <v>400</v>
+      </c>
+      <c r="D113" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>255</v>
+      </c>
+      <c r="C114" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>83</v>
+      </c>
+      <c r="C115" t="n">
+        <v>45</v>
+      </c>
+      <c r="D115" t="n">
+        <v>425</v>
+      </c>
+      <c r="E115" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>235</v>
+      </c>
+      <c r="C116" t="n">
+        <v>67</v>
+      </c>
+      <c r="D116" t="n">
+        <v>75</v>
+      </c>
+      <c r="E116" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>160</v>
+      </c>
+      <c r="C117" t="n">
+        <v>140</v>
+      </c>
+      <c r="D117" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>465</v>
+      </c>
+      <c r="C118" t="n">
+        <v>470</v>
+      </c>
+      <c r="D118" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>252</v>
+      </c>
+      <c r="C119" t="n">
+        <v>317</v>
+      </c>
+      <c r="D119" t="n">
+        <v>161</v>
+      </c>
+      <c r="E119" t="n">
+        <v>14</v>
+      </c>
+      <c r="F119" t="n">
+        <v>488</v>
+      </c>
+      <c r="G119" t="n">
+        <v>172</v>
+      </c>
+      <c r="H119" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>396</v>
+      </c>
+      <c r="C120" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>401</v>
+      </c>
+      <c r="C122" t="n">
+        <v>19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>95</v>
+      </c>
+      <c r="C123" t="n">
+        <v>112</v>
+      </c>
+      <c r="D123" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>204</v>
+      </c>
+      <c r="C124" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>230</v>
+      </c>
+      <c r="C125" t="n">
+        <v>369</v>
+      </c>
+      <c r="D125" t="n">
+        <v>335</v>
+      </c>
+      <c r="E125" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>87</v>
+      </c>
+      <c r="C126" t="n">
+        <v>203</v>
+      </c>
+      <c r="D126" t="n">
+        <v>267</v>
+      </c>
+      <c r="E126" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>345</v>
+      </c>
+      <c r="C127" t="n">
+        <v>374</v>
+      </c>
+      <c r="D127" t="n">
+        <v>349</v>
+      </c>
+      <c r="E127" t="n">
+        <v>407</v>
+      </c>
+      <c r="F127" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>291</v>
+      </c>
+      <c r="D128" t="n">
+        <v>277</v>
+      </c>
+      <c r="E128" t="n">
+        <v>372</v>
+      </c>
+      <c r="F128" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>31</v>
+      </c>
+      <c r="C129" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>102</v>
+      </c>
+      <c r="C131" t="n">
+        <v>32</v>
+      </c>
+      <c r="D131" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>494</v>
+      </c>
+      <c r="C132" t="n">
+        <v>303</v>
+      </c>
+      <c r="D132" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>116</v>
+      </c>
+      <c r="C133" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>300</v>
+      </c>
+      <c r="C134" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>138</v>
+      </c>
+      <c r="C135" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>163</v>
+      </c>
+      <c r="C136" t="n">
+        <v>231</v>
+      </c>
+      <c r="D136" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>429</v>
+      </c>
+      <c r="C137" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>34</v>
+      </c>
+      <c r="C138" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>379</v>
+      </c>
+      <c r="C139" t="n">
+        <v>120</v>
+      </c>
+      <c r="D139" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>268</v>
+      </c>
+      <c r="C142" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28</v>
+      </c>
+      <c r="C143" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>73</v>
+      </c>
+      <c r="C144" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>52</v>
+      </c>
+      <c r="C148" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>251</v>
+      </c>
+      <c r="C149" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O874"/>
+  <dimension ref="A1:G874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>615</v>
+        <v>274</v>
       </c>
       <c r="C2" t="n">
-        <v>638</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3">
@@ -444,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="C3" t="n">
-        <v>752</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -455,10 +455,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C4" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -466,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -477,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>302</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7">
@@ -488,10 +488,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" t="n">
-        <v>680</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
@@ -510,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" t="n">
-        <v>521</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
@@ -521,10 +521,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>148</v>
+        <v>613</v>
       </c>
       <c r="C10" t="n">
-        <v>522</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +532,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>613</v>
+        <v>181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="12">
@@ -540,10 +543,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13">
@@ -551,10 +554,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>182</v>
+        <v>725</v>
       </c>
       <c r="C13" t="n">
-        <v>798</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
@@ -562,10 +565,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>725</v>
+        <v>589</v>
       </c>
       <c r="C14" t="n">
-        <v>273</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +576,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C15" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16">
@@ -584,10 +587,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>590</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
-        <v>588</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -595,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -606,10 +609,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19">
@@ -617,10 +620,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>288</v>
+        <v>830</v>
       </c>
       <c r="C19" t="n">
-        <v>306</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -628,10 +631,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>830</v>
+        <v>737</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21">
@@ -639,10 +642,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>737</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
-        <v>632</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -650,10 +653,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>608</v>
+      </c>
+      <c r="E22" t="n">
+        <v>523</v>
       </c>
     </row>
     <row r="23">
@@ -661,10 +670,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C23" t="n">
-        <v>130</v>
+        <v>787</v>
+      </c>
+      <c r="D23" t="n">
+        <v>493</v>
       </c>
     </row>
     <row r="24">
@@ -672,10 +684,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25">
@@ -683,10 +695,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C25" t="n">
-        <v>708</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26">
@@ -694,13 +706,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" t="n">
-        <v>95</v>
-      </c>
-      <c r="D26" t="n">
-        <v>107</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27">
@@ -708,10 +717,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>261</v>
+        <v>782</v>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28">
@@ -719,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>782</v>
+        <v>620</v>
       </c>
       <c r="C28" t="n">
-        <v>493</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29">
@@ -730,10 +739,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>620</v>
+        <v>547</v>
       </c>
       <c r="C29" t="n">
-        <v>744</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -741,10 +750,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C30" t="n">
-        <v>179</v>
+        <v>546</v>
+      </c>
+      <c r="D30" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="31">
@@ -752,10 +764,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C31" t="n">
-        <v>180</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -763,10 +775,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="C32" t="n">
-        <v>809</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -774,10 +786,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="C33" t="n">
-        <v>793</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -785,13 +797,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>555</v>
+        <v>243</v>
       </c>
       <c r="C34" t="n">
-        <v>553</v>
-      </c>
-      <c r="D34" t="n">
-        <v>581</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35">
@@ -799,13 +808,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>556</v>
+        <v>705</v>
       </c>
       <c r="C35" t="n">
-        <v>554</v>
-      </c>
-      <c r="D35" t="n">
-        <v>582</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36">
@@ -813,7 +819,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>242</v>
+        <v>706</v>
+      </c>
+      <c r="C36" t="n">
+        <v>249</v>
+      </c>
+      <c r="D36" t="n">
+        <v>494</v>
       </c>
     </row>
     <row r="37">
@@ -821,7 +833,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>243</v>
+        <v>294</v>
+      </c>
+      <c r="C37" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -829,10 +844,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>726</v>
+        <v>131</v>
       </c>
       <c r="C38" t="n">
-        <v>616</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39">
@@ -840,10 +855,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>705</v>
+        <v>132</v>
       </c>
       <c r="C39" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
@@ -851,10 +866,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>706</v>
+        <v>378</v>
       </c>
       <c r="C40" t="n">
-        <v>154</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41">
@@ -862,13 +877,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>294</v>
+        <v>831</v>
       </c>
       <c r="C41" t="n">
-        <v>825</v>
-      </c>
-      <c r="D41" t="n">
-        <v>308</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42">
@@ -876,10 +888,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="C42" t="n">
-        <v>151</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43">
@@ -887,10 +899,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="C43" t="n">
-        <v>152</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44">
@@ -898,10 +910,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="C44" t="n">
-        <v>479</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45">
@@ -909,10 +921,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="C45" t="n">
-        <v>480</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
@@ -920,46 +932,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>831</v>
+        <v>428</v>
       </c>
       <c r="C46" t="n">
-        <v>845</v>
+        <v>503</v>
       </c>
       <c r="D46" t="n">
-        <v>748</v>
-      </c>
-      <c r="E46" t="n">
-        <v>277</v>
-      </c>
-      <c r="F46" t="n">
-        <v>278</v>
-      </c>
-      <c r="G46" t="n">
-        <v>773</v>
-      </c>
-      <c r="H46" t="n">
-        <v>819</v>
-      </c>
-      <c r="I46" t="n">
-        <v>804</v>
-      </c>
-      <c r="J46" t="n">
-        <v>618</v>
-      </c>
-      <c r="K46" t="n">
-        <v>751</v>
-      </c>
-      <c r="L46" t="n">
-        <v>823</v>
-      </c>
-      <c r="M46" t="n">
-        <v>761</v>
-      </c>
-      <c r="N46" t="n">
-        <v>614</v>
-      </c>
-      <c r="O46" t="n">
-        <v>805</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47">
@@ -967,10 +946,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="C47" t="n">
-        <v>769</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48">
@@ -978,10 +957,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>244</v>
+        <v>824</v>
       </c>
       <c r="C48" t="n">
-        <v>608</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49">
@@ -989,10 +968,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>245</v>
+        <v>617</v>
       </c>
       <c r="C49" t="n">
-        <v>449</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50">
@@ -1000,10 +979,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>560</v>
+        <v>809</v>
       </c>
       <c r="C50" t="n">
-        <v>494</v>
+        <v>811</v>
       </c>
     </row>
     <row r="51">
@@ -1011,13 +990,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>427</v>
+        <v>545</v>
       </c>
       <c r="C51" t="n">
-        <v>810</v>
-      </c>
-      <c r="D51" t="n">
-        <v>561</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52">
@@ -1025,10 +1001,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>428</v>
+        <v>553</v>
       </c>
       <c r="C52" t="n">
-        <v>141</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53">
@@ -1036,10 +1012,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>787</v>
+        <v>554</v>
       </c>
       <c r="C53" t="n">
-        <v>562</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54">
@@ -1047,13 +1023,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C54" t="n">
-        <v>142</v>
-      </c>
-      <c r="D54" t="n">
-        <v>429</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -1061,10 +1034,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -1072,10 +1045,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>824</v>
+        <v>634</v>
       </c>
       <c r="C56" t="n">
-        <v>781</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57">
@@ -1083,10 +1056,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>617</v>
+        <v>786</v>
       </c>
       <c r="C57" t="n">
-        <v>633</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1094,10 +1067,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>545</v>
+        <v>248</v>
       </c>
       <c r="C58" t="n">
-        <v>685</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59">
@@ -1105,10 +1078,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>546</v>
+        <v>825</v>
       </c>
       <c r="C59" t="n">
-        <v>686</v>
+        <v>826</v>
+      </c>
+      <c r="D59" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="60">
@@ -1116,10 +1092,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>108</v>
+        <v>604</v>
       </c>
       <c r="C60" t="n">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61">
@@ -1127,10 +1103,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>811</v>
+        <v>361</v>
       </c>
       <c r="C61" t="n">
-        <v>503</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62">
@@ -1138,10 +1114,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>634</v>
+        <v>362</v>
       </c>
       <c r="C62" t="n">
-        <v>605</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63">
@@ -1149,10 +1125,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>786</v>
+        <v>581</v>
       </c>
       <c r="C63" t="n">
-        <v>504</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
@@ -1160,10 +1136,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>248</v>
+        <v>582</v>
       </c>
       <c r="C64" t="n">
-        <v>592</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -1171,10 +1147,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="C65" t="n">
-        <v>481</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66">
@@ -1182,10 +1158,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>604</v>
+        <v>289</v>
       </c>
       <c r="C66" t="n">
-        <v>610</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67">
@@ -1193,10 +1169,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>361</v>
+        <v>810</v>
       </c>
       <c r="C67" t="n">
-        <v>573</v>
+        <v>813</v>
       </c>
     </row>
     <row r="68">
@@ -1204,10 +1180,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>362</v>
+        <v>437</v>
       </c>
       <c r="C68" t="n">
-        <v>574</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69">
@@ -1215,10 +1191,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>307</v>
+        <v>438</v>
       </c>
       <c r="C69" t="n">
-        <v>291</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70">
@@ -1226,10 +1202,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>37</v>
+        <v>562</v>
       </c>
       <c r="C70" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -1237,10 +1213,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>38</v>
+        <v>660</v>
       </c>
       <c r="C71" t="n">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -1248,10 +1224,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="C72" t="n">
-        <v>225</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73">
@@ -1259,13 +1235,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>437</v>
+        <v>154</v>
       </c>
       <c r="C73" t="n">
-        <v>54</v>
-      </c>
-      <c r="D73" t="n">
-        <v>483</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74">
@@ -1273,13 +1246,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>438</v>
+        <v>845</v>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
-      </c>
-      <c r="D74" t="n">
-        <v>484</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75">
@@ -1287,10 +1257,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>609</v>
+        <v>850</v>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76">
@@ -1298,13 +1268,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>659</v>
+        <v>84</v>
       </c>
       <c r="C76" t="n">
-        <v>211</v>
-      </c>
-      <c r="D76" t="n">
-        <v>126</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77">
@@ -1312,13 +1279,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>660</v>
+        <v>143</v>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
-      </c>
-      <c r="D77" t="n">
-        <v>653</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78">
@@ -1326,10 +1290,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>850</v>
+        <v>144</v>
       </c>
       <c r="C78" t="n">
-        <v>742</v>
+        <v>579</v>
+      </c>
+      <c r="D78" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="79">
@@ -1337,10 +1304,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>813</v>
+        <v>565</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80">
@@ -1348,10 +1315,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>84</v>
+        <v>566</v>
       </c>
       <c r="C80" t="n">
-        <v>482</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81">
@@ -1359,10 +1326,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>85</v>
+        <v>739</v>
       </c>
       <c r="C81" t="n">
-        <v>837</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82">
@@ -1370,10 +1337,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>771</v>
       </c>
       <c r="C82" t="n">
-        <v>838</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83">
@@ -1381,10 +1348,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="C83" t="n">
-        <v>507</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84">
@@ -1392,10 +1359,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C84" t="n">
-        <v>812</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85">
@@ -1403,13 +1370,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>144</v>
+        <v>491</v>
       </c>
       <c r="C85" t="n">
-        <v>579</v>
-      </c>
-      <c r="D85" t="n">
-        <v>654</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
@@ -1417,10 +1381,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>565</v>
+        <v>492</v>
       </c>
       <c r="C86" t="n">
-        <v>563</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -1428,10 +1392,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>566</v>
+        <v>781</v>
       </c>
       <c r="C87" t="n">
-        <v>564</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88">
@@ -1439,10 +1403,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C88" t="n">
-        <v>826</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89">
@@ -1450,10 +1414,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>771</v>
+        <v>429</v>
       </c>
       <c r="C89" t="n">
-        <v>770</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90">
@@ -1461,10 +1425,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>183</v>
+        <v>430</v>
       </c>
       <c r="C90" t="n">
-        <v>508</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91">
@@ -1472,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="C91" t="n">
-        <v>97</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92">
@@ -1483,10 +1447,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>523</v>
+        <v>661</v>
       </c>
       <c r="C92" t="n">
-        <v>525</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -1494,10 +1458,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>524</v>
+        <v>109</v>
       </c>
       <c r="C93" t="n">
-        <v>526</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94">
@@ -1505,10 +1469,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>491</v>
+        <v>110</v>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95">
@@ -1516,10 +1480,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="C95" t="n">
-        <v>580</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96">
@@ -1527,10 +1491,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>741</v>
+        <v>573</v>
       </c>
       <c r="C96" t="n">
-        <v>630</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
@@ -1538,10 +1502,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>430</v>
+        <v>574</v>
       </c>
       <c r="C97" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -1549,10 +1513,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="C98" t="n">
-        <v>318</v>
+        <v>96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -1560,10 +1527,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="C99" t="n">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100">
@@ -1571,10 +1538,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>155</v>
+        <v>774</v>
       </c>
       <c r="C100" t="n">
-        <v>70</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101">
@@ -1582,10 +1549,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>156</v>
+        <v>549</v>
       </c>
       <c r="C101" t="n">
-        <v>71</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102">
@@ -1593,10 +1560,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="C102" t="n">
-        <v>271</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103">
@@ -1604,10 +1571,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>774</v>
+        <v>291</v>
       </c>
       <c r="C103" t="n">
-        <v>69</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104">
@@ -1615,10 +1582,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>549</v>
+        <v>452</v>
       </c>
       <c r="C104" t="n">
-        <v>335</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105">
@@ -1626,10 +1593,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
-        <v>336</v>
+        <v>484</v>
+      </c>
+      <c r="D105" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="106">
@@ -1637,10 +1607,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>745</v>
+        <v>389</v>
       </c>
       <c r="C106" t="n">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107">
@@ -1648,10 +1618,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="C107" t="n">
-        <v>640</v>
+        <v>335</v>
+      </c>
+      <c r="D107" t="n">
+        <v>653</v>
       </c>
     </row>
     <row r="108">
@@ -1659,10 +1632,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="C108" t="n">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
@@ -1670,10 +1643,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>389</v>
+        <v>526</v>
       </c>
       <c r="C109" t="n">
-        <v>264</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
@@ -1681,10 +1654,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>390</v>
+        <v>564</v>
       </c>
       <c r="C110" t="n">
-        <v>265</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111">
@@ -1692,10 +1665,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C111" t="n">
-        <v>711</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112">
@@ -1703,7 +1676,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C112" t="n">
         <v>779</v>
@@ -1714,10 +1687,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>29</v>
-      </c>
-      <c r="C113" t="n">
-        <v>664</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -1725,10 +1695,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="C114" t="n">
-        <v>665</v>
+        <v>788</v>
+      </c>
+      <c r="D114" t="n">
+        <v>728</v>
+      </c>
+      <c r="E114" t="n">
+        <v>795</v>
       </c>
     </row>
     <row r="115">
@@ -1736,10 +1712,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C115" t="n">
-        <v>457</v>
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>681</v>
       </c>
     </row>
     <row r="116">
@@ -1747,7 +1726,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>321</v>
+      </c>
+      <c r="C116" t="n">
+        <v>665</v>
       </c>
     </row>
     <row r="117">
@@ -1755,10 +1737,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>664</v>
       </c>
     </row>
     <row r="118">
@@ -1766,10 +1748,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>214</v>
+        <v>770</v>
       </c>
       <c r="C118" t="n">
-        <v>799</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119">
@@ -1777,10 +1759,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>321</v>
+        <v>505</v>
       </c>
       <c r="C119" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120">
@@ -1788,10 +1770,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>322</v>
+        <v>506</v>
       </c>
       <c r="C120" t="n">
-        <v>789</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121">
@@ -1799,13 +1781,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C121" t="n">
-        <v>343</v>
-      </c>
-      <c r="D121" t="n">
-        <v>189</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122">
@@ -1813,13 +1792,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>506</v>
+        <v>631</v>
       </c>
       <c r="C122" t="n">
-        <v>344</v>
-      </c>
-      <c r="D122" t="n">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123">
@@ -1827,10 +1803,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C123" t="n">
-        <v>284</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124">
@@ -1838,7 +1814,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>315</v>
+        <v>5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>644</v>
       </c>
     </row>
     <row r="125">
@@ -1846,7 +1825,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>624</v>
+        <v>508</v>
+      </c>
+      <c r="C125" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="126">
@@ -1854,10 +1836,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>276</v>
       </c>
       <c r="C126" t="n">
-        <v>644</v>
+        <v>722</v>
+      </c>
+      <c r="D126" t="n">
+        <v>619</v>
+      </c>
+      <c r="E126" t="n">
+        <v>804</v>
+      </c>
+      <c r="F126" t="n">
+        <v>618</v>
+      </c>
+      <c r="G126" t="n">
+        <v>747</v>
       </c>
     </row>
     <row r="127">
@@ -1865,10 +1859,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="C127" t="n">
-        <v>313</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
@@ -1876,10 +1870,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>323</v>
+        <v>684</v>
       </c>
       <c r="C128" t="n">
-        <v>487</v>
+        <v>860</v>
       </c>
     </row>
     <row r="129">
@@ -1887,10 +1881,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="C129" t="n">
-        <v>488</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130">
@@ -1898,10 +1892,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>788</v>
+        <v>69</v>
       </c>
       <c r="C130" t="n">
-        <v>709</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131">
@@ -1909,10 +1903,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>272</v>
+        <v>628</v>
       </c>
       <c r="C131" t="n">
-        <v>861</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132">
@@ -1920,10 +1914,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>625</v>
+        <v>835</v>
       </c>
       <c r="C132" t="n">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="133">
@@ -1931,7 +1925,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>684</v>
+        <v>304</v>
+      </c>
+      <c r="C133" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="134">
@@ -1939,10 +1936,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>628</v>
+        <v>157</v>
       </c>
       <c r="C134" t="n">
-        <v>862</v>
+        <v>195</v>
+      </c>
+      <c r="D134" t="n">
+        <v>687</v>
       </c>
     </row>
     <row r="135">
@@ -1950,10 +1950,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>835</v>
+        <v>70</v>
       </c>
       <c r="C135" t="n">
-        <v>836</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136">
@@ -1961,10 +1961,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="C136" t="n">
-        <v>305</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137">
@@ -1972,13 +1972,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>157</v>
+        <v>740</v>
       </c>
       <c r="C137" t="n">
-        <v>196</v>
-      </c>
-      <c r="D137" t="n">
-        <v>687</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -1986,13 +1983,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C138" t="n">
-        <v>710</v>
-      </c>
-      <c r="D138" t="n">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
@@ -2000,13 +1994,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>740</v>
+        <v>861</v>
       </c>
       <c r="C139" t="n">
-        <v>295</v>
-      </c>
-      <c r="D139" t="n">
-        <v>646</v>
+        <v>862</v>
       </c>
     </row>
     <row r="140">
@@ -2014,10 +2005,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>266</v>
+        <v>778</v>
       </c>
       <c r="C140" t="n">
-        <v>712</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141">
@@ -2025,10 +2016,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C141" t="n">
-        <v>56</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142">
@@ -2036,10 +2027,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="C142" t="n">
-        <v>57</v>
+        <v>848</v>
       </c>
     </row>
     <row r="143">
@@ -2047,10 +2038,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>353</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144">
@@ -2058,10 +2049,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>778</v>
+        <v>730</v>
       </c>
       <c r="C144" t="n">
-        <v>439</v>
+        <v>709</v>
       </c>
     </row>
     <row r="145">
@@ -2069,10 +2060,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>191</v>
+        <v>731</v>
       </c>
       <c r="C145" t="n">
-        <v>187</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146">
@@ -2080,10 +2071,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>192</v>
+        <v>820</v>
       </c>
       <c r="C146" t="n">
-        <v>188</v>
+        <v>763</v>
       </c>
     </row>
     <row r="147">
@@ -2091,10 +2082,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C147" t="n">
-        <v>603</v>
+        <v>711</v>
       </c>
     </row>
     <row r="148">
@@ -2102,10 +2093,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C148" t="n">
-        <v>113</v>
+        <v>712</v>
       </c>
     </row>
     <row r="149">
@@ -2113,10 +2104,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="C149" t="n">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
@@ -2124,10 +2115,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>730</v>
+        <v>487</v>
       </c>
       <c r="C150" t="n">
-        <v>159</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151">
@@ -2135,10 +2126,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>731</v>
+        <v>488</v>
       </c>
       <c r="C151" t="n">
-        <v>160</v>
+        <v>688</v>
       </c>
     </row>
     <row r="152">
@@ -2146,10 +2137,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>820</v>
+        <v>196</v>
       </c>
       <c r="C152" t="n">
-        <v>763</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153">
@@ -2157,10 +2148,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>76</v>
+        <v>789</v>
       </c>
       <c r="C153" t="n">
-        <v>354</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154">
@@ -2168,10 +2159,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C154" t="n">
-        <v>794</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155">
@@ -2179,13 +2170,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>465</v>
+        <v>198</v>
       </c>
       <c r="C155" t="n">
-        <v>440</v>
-      </c>
-      <c r="D155" t="n">
-        <v>395</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -2193,10 +2181,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>466</v>
+        <v>343</v>
       </c>
       <c r="C156" t="n">
-        <v>403</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157">
@@ -2204,10 +2192,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>651</v>
+        <v>344</v>
       </c>
       <c r="C157" t="n">
-        <v>746</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
@@ -2215,10 +2203,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>111</v>
+        <v>593</v>
       </c>
       <c r="C158" t="n">
-        <v>795</v>
+        <v>729</v>
       </c>
     </row>
     <row r="159">
@@ -2226,10 +2214,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>112</v>
+        <v>594</v>
       </c>
       <c r="C159" t="n">
-        <v>699</v>
+        <v>239</v>
+      </c>
+      <c r="D159" t="n">
+        <v>697</v>
       </c>
     </row>
     <row r="160">
@@ -2237,10 +2228,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C160" t="n">
-        <v>697</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161">
@@ -2248,10 +2239,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C161" t="n">
-        <v>404</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162">
@@ -2259,10 +2250,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="C162" t="n">
-        <v>681</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163">
@@ -2270,10 +2261,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="C163" t="n">
-        <v>100</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164">
@@ -2281,13 +2272,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>593</v>
+        <v>114</v>
       </c>
       <c r="C164" t="n">
-        <v>495</v>
-      </c>
-      <c r="D164" t="n">
-        <v>698</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165">
@@ -2295,13 +2283,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>594</v>
+        <v>160</v>
       </c>
       <c r="C165" t="n">
-        <v>496</v>
-      </c>
-      <c r="D165" t="n">
-        <v>595</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
@@ -2309,10 +2294,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>58</v>
+        <v>849</v>
       </c>
       <c r="C166" t="n">
-        <v>63</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167">
@@ -2320,10 +2305,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="C167" t="n">
-        <v>596</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168">
@@ -2331,13 +2316,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>421</v>
+        <v>648</v>
       </c>
       <c r="C168" t="n">
-        <v>863</v>
-      </c>
-      <c r="D168" t="n">
-        <v>60</v>
+        <v>819</v>
       </c>
     </row>
     <row r="169">
@@ -2345,10 +2327,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>422</v>
+        <v>800</v>
       </c>
       <c r="C169" t="n">
-        <v>535</v>
+        <v>672</v>
+      </c>
+      <c r="D169" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="170">
@@ -2356,10 +2341,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>860</v>
+        <v>278</v>
       </c>
       <c r="C170" t="n">
-        <v>721</v>
+        <v>773</v>
       </c>
     </row>
     <row r="171">
@@ -2367,10 +2352,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>648</v>
+        <v>72</v>
       </c>
       <c r="C171" t="n">
-        <v>619</v>
+        <v>536</v>
       </c>
     </row>
     <row r="172">
@@ -2378,10 +2363,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>800</v>
+        <v>73</v>
       </c>
       <c r="C172" t="n">
-        <v>101</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173">
@@ -2389,10 +2374,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>72</v>
+        <v>440</v>
       </c>
       <c r="C173" t="n">
-        <v>536</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
@@ -2400,10 +2385,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="C174" t="n">
-        <v>238</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175">
@@ -2411,10 +2396,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="C175" t="n">
-        <v>489</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176">
@@ -2422,10 +2407,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C176" t="n">
-        <v>490</v>
+        <v>799</v>
       </c>
     </row>
     <row r="177">
@@ -2433,10 +2418,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="C177" t="n">
-        <v>239</v>
+        <v>500</v>
+      </c>
+      <c r="D177" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="178">
@@ -2444,13 +2432,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C178" t="n">
-        <v>728</v>
-      </c>
-      <c r="D178" t="n">
-        <v>509</v>
+        <v>794</v>
       </c>
     </row>
     <row r="179">
@@ -2458,31 +2443,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>832</v>
+        <v>190</v>
       </c>
       <c r="C179" t="n">
-        <v>833</v>
-      </c>
-      <c r="D179" t="n">
-        <v>623</v>
-      </c>
-      <c r="E179" t="n">
-        <v>760</v>
-      </c>
-      <c r="F179" t="n">
-        <v>629</v>
-      </c>
-      <c r="G179" t="n">
-        <v>749</v>
-      </c>
-      <c r="H179" t="n">
-        <v>269</v>
-      </c>
-      <c r="I179" t="n">
-        <v>765</v>
-      </c>
-      <c r="J179" t="n">
-        <v>287</v>
+        <v>698</v>
       </c>
     </row>
     <row r="180">
@@ -2490,10 +2454,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="C180" t="n">
-        <v>755</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181">
@@ -2501,13 +2465,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>319</v>
+        <v>863</v>
       </c>
       <c r="C181" t="n">
-        <v>729</v>
-      </c>
-      <c r="D181" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182">
@@ -2515,10 +2476,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>320</v>
+        <v>832</v>
       </c>
       <c r="C182" t="n">
-        <v>252</v>
+        <v>833</v>
+      </c>
+      <c r="D182" t="n">
+        <v>623</v>
+      </c>
+      <c r="E182" t="n">
+        <v>829</v>
       </c>
     </row>
     <row r="183">
@@ -2526,10 +2493,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>11</v>
+        <v>746</v>
       </c>
       <c r="C183" t="n">
-        <v>643</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184">
@@ -2537,10 +2504,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="C184" t="n">
-        <v>253</v>
+        <v>643</v>
       </c>
     </row>
     <row r="185">
@@ -2548,10 +2515,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C185" t="n">
-        <v>433</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186">
@@ -2559,16 +2526,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>772</v>
+        <v>576</v>
       </c>
       <c r="C186" t="n">
-        <v>722</v>
-      </c>
-      <c r="D186" t="n">
-        <v>641</v>
-      </c>
-      <c r="E186" t="n">
-        <v>829</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187">
@@ -2576,10 +2537,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="C187" t="n">
-        <v>411</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188">
@@ -2587,10 +2548,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>392</v>
+        <v>772</v>
       </c>
       <c r="C188" t="n">
-        <v>412</v>
+        <v>859</v>
       </c>
     </row>
     <row r="189">
@@ -2601,7 +2562,7 @@
         <v>309</v>
       </c>
       <c r="C189" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190">
@@ -2612,7 +2573,7 @@
         <v>61</v>
       </c>
       <c r="C190" t="n">
-        <v>537</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191">
@@ -2620,10 +2581,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>431</v>
+        <v>238</v>
       </c>
       <c r="C191" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192">
@@ -2631,10 +2592,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C192" t="n">
-        <v>551</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193">
@@ -2642,10 +2603,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>743</v>
+        <v>432</v>
       </c>
       <c r="C193" t="n">
-        <v>723</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194">
@@ -2653,13 +2614,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>121</v>
+        <v>743</v>
       </c>
       <c r="C194" t="n">
         <v>552</v>
       </c>
       <c r="D194" t="n">
-        <v>393</v>
+        <v>20</v>
+      </c>
+      <c r="E194" t="n">
+        <v>701</v>
       </c>
     </row>
     <row r="195">
@@ -2667,13 +2631,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>122</v>
+        <v>721</v>
       </c>
       <c r="C195" t="n">
-        <v>363</v>
-      </c>
-      <c r="D195" t="n">
-        <v>796</v>
+        <v>756</v>
       </c>
     </row>
     <row r="196">
@@ -2681,13 +2642,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>169</v>
+        <v>700</v>
       </c>
       <c r="C196" t="n">
-        <v>369</v>
-      </c>
-      <c r="D196" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197">
@@ -2695,13 +2653,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="C197" t="n">
-        <v>370</v>
-      </c>
-      <c r="D197" t="n">
-        <v>206</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198">
@@ -2709,10 +2664,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>848</v>
+        <v>63</v>
       </c>
       <c r="C198" t="n">
-        <v>317</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199">
@@ -2720,10 +2675,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>700</v>
+        <v>583</v>
       </c>
       <c r="C199" t="n">
-        <v>345</v>
+        <v>673</v>
       </c>
     </row>
     <row r="200">
@@ -2731,13 +2686,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
-      </c>
-      <c r="D200" t="n">
-        <v>9</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201">
@@ -2745,13 +2697,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>583</v>
+        <v>395</v>
       </c>
       <c r="C201" t="n">
-        <v>256</v>
-      </c>
-      <c r="D201" t="n">
-        <v>527</v>
+        <v>595</v>
       </c>
     </row>
     <row r="202">
@@ -2759,13 +2708,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>584</v>
+        <v>396</v>
       </c>
       <c r="C202" t="n">
-        <v>257</v>
-      </c>
-      <c r="D202" t="n">
-        <v>528</v>
+        <v>596</v>
       </c>
     </row>
     <row r="203">
@@ -2773,10 +2719,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>286</v>
+        <v>551</v>
       </c>
       <c r="C203" t="n">
-        <v>645</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204">
@@ -2784,10 +2730,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>396</v>
+        <v>510</v>
       </c>
       <c r="C204" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205">
@@ -2795,10 +2741,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="C205" t="n">
-        <v>230</v>
+        <v>385</v>
       </c>
     </row>
     <row r="206">
@@ -2806,10 +2752,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C206" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D206" t="n">
         <v>783</v>
@@ -2823,13 +2769,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>733</v>
+        <v>436</v>
       </c>
       <c r="C207" t="n">
-        <v>116</v>
-      </c>
-      <c r="D207" t="n">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208">
@@ -2837,13 +2780,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C208" t="n">
-        <v>814</v>
-      </c>
-      <c r="D208" t="n">
-        <v>497</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209">
@@ -2851,13 +2791,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="C209" t="n">
-        <v>385</v>
-      </c>
-      <c r="D209" t="n">
-        <v>498</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210">
@@ -2881,10 +2818,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C212" t="n">
-        <v>78</v>
+        <v>790</v>
       </c>
     </row>
     <row r="213">
@@ -2892,10 +2829,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="C213" t="n">
-        <v>441</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
@@ -2903,10 +2840,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C214" t="n">
-        <v>442</v>
+        <v>490</v>
+      </c>
+      <c r="D214" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="215">
@@ -2914,10 +2854,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="C215" t="n">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216">
@@ -2925,13 +2865,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>499</v>
+        <v>230</v>
       </c>
       <c r="C216" t="n">
-        <v>386</v>
-      </c>
-      <c r="D216" t="n">
-        <v>689</v>
+        <v>597</v>
       </c>
     </row>
     <row r="217">
@@ -2939,10 +2876,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>500</v>
+        <v>231</v>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218">
@@ -2950,10 +2887,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>682</v>
+        <v>256</v>
       </c>
       <c r="C218" t="n">
-        <v>701</v>
+        <v>528</v>
+      </c>
+      <c r="D218" t="n">
+        <v>513</v>
       </c>
     </row>
     <row r="219">
@@ -2961,10 +2901,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>672</v>
+        <v>257</v>
       </c>
       <c r="C219" t="n">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="D219" t="n">
+        <v>724</v>
       </c>
     </row>
     <row r="220">
@@ -2972,10 +2915,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C220" t="n">
-        <v>655</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221">
@@ -2986,7 +2929,7 @@
         <v>443</v>
       </c>
       <c r="C221" t="n">
-        <v>802</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222">
@@ -2997,7 +2940,7 @@
         <v>444</v>
       </c>
       <c r="C222" t="n">
-        <v>853</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223">
@@ -3008,10 +2951,7 @@
         <v>258</v>
       </c>
       <c r="C223" t="n">
-        <v>851</v>
-      </c>
-      <c r="D223" t="n">
-        <v>854</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224">
@@ -3022,10 +2962,7 @@
         <v>259</v>
       </c>
       <c r="C224" t="n">
-        <v>852</v>
-      </c>
-      <c r="D224" t="n">
-        <v>167</v>
+        <v>468</v>
       </c>
     </row>
     <row r="225">
@@ -3033,13 +2970,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="C225" t="n">
-        <v>149</v>
-      </c>
-      <c r="D225" t="n">
-        <v>64</v>
+        <v>401</v>
       </c>
     </row>
     <row r="226">
@@ -3047,10 +2981,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>756</v>
+        <v>316</v>
       </c>
       <c r="C226" t="n">
-        <v>757</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
@@ -3058,10 +2992,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>346</v>
+        <v>538</v>
       </c>
       <c r="C227" t="n">
-        <v>15</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228">
@@ -3069,13 +3003,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C228" t="n">
-        <v>150</v>
-      </c>
-      <c r="D228" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -3083,10 +3014,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C229" t="n">
-        <v>557</v>
+        <v>689</v>
       </c>
     </row>
     <row r="230">
@@ -3097,7 +3028,7 @@
         <v>409</v>
       </c>
       <c r="C230" t="n">
-        <v>656</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231">
@@ -3108,7 +3039,10 @@
         <v>410</v>
       </c>
       <c r="C231" t="n">
-        <v>246</v>
+        <v>796</v>
+      </c>
+      <c r="D231" t="n">
+        <v>715</v>
       </c>
     </row>
     <row r="232">
@@ -3119,7 +3053,16 @@
         <v>750</v>
       </c>
       <c r="C232" t="n">
-        <v>859</v>
+        <v>846</v>
+      </c>
+      <c r="D232" t="n">
+        <v>650</v>
+      </c>
+      <c r="E232" t="n">
+        <v>753</v>
+      </c>
+      <c r="F232" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="233">
@@ -3130,7 +3073,7 @@
         <v>371</v>
       </c>
       <c r="C233" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234">
@@ -3141,10 +3084,7 @@
         <v>372</v>
       </c>
       <c r="C234" t="n">
-        <v>467</v>
-      </c>
-      <c r="D234" t="n">
-        <v>815</v>
+        <v>558</v>
       </c>
     </row>
     <row r="235">
@@ -3152,13 +3092,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="C235" t="n">
-        <v>468</v>
-      </c>
-      <c r="D235" t="n">
-        <v>359</v>
+        <v>601</v>
       </c>
     </row>
     <row r="236">
@@ -3166,13 +3103,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="C236" t="n">
-        <v>373</v>
-      </c>
-      <c r="D236" t="n">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237">
@@ -3180,10 +3114,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C237" t="n">
-        <v>469</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238">
@@ -3191,10 +3125,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>690</v>
+        <v>251</v>
       </c>
       <c r="C238" t="n">
-        <v>168</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239">
@@ -3202,10 +3136,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>379</v>
+        <v>755</v>
       </c>
       <c r="C239" t="n">
-        <v>470</v>
+        <v>642</v>
       </c>
     </row>
     <row r="240">
@@ -3213,10 +3147,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="C240" t="n">
-        <v>715</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241">
@@ -3224,13 +3158,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>381</v>
+        <v>150</v>
       </c>
       <c r="C241" t="n">
-        <v>201</v>
-      </c>
-      <c r="D241" t="n">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="242">
@@ -3238,13 +3169,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>382</v>
+        <v>690</v>
       </c>
       <c r="C242" t="n">
-        <v>202</v>
-      </c>
-      <c r="D242" t="n">
-        <v>330</v>
+        <v>802</v>
       </c>
     </row>
     <row r="243">
@@ -3252,10 +3180,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>347</v>
+        <v>851</v>
       </c>
       <c r="C243" t="n">
-        <v>374</v>
+        <v>602</v>
       </c>
     </row>
     <row r="244">
@@ -3263,13 +3191,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="C244" t="n">
-        <v>511</v>
-      </c>
-      <c r="D244" t="n">
-        <v>668</v>
+        <v>641</v>
       </c>
     </row>
     <row r="245">
@@ -3277,10 +3202,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>601</v>
+        <v>852</v>
       </c>
       <c r="C245" t="n">
-        <v>512</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246">
@@ -3288,10 +3213,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>602</v>
+        <v>393</v>
       </c>
       <c r="C246" t="n">
-        <v>397</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247">
@@ -3299,13 +3224,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C247" t="n">
-        <v>398</v>
-      </c>
-      <c r="D247" t="n">
-        <v>669</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248">
@@ -3313,10 +3235,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="C248" t="n">
-        <v>30</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249">
@@ -3324,10 +3246,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="C249" t="n">
-        <v>702</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250">
@@ -3335,10 +3257,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="C250" t="n">
-        <v>662</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251">
@@ -3346,10 +3268,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>597</v>
+        <v>402</v>
       </c>
       <c r="C251" t="n">
-        <v>716</v>
+        <v>398</v>
+      </c>
+      <c r="D251" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="252">
@@ -3357,10 +3282,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>598</v>
+        <v>102</v>
       </c>
       <c r="C252" t="n">
-        <v>423</v>
+        <v>194</v>
+      </c>
+      <c r="D252" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="253">
@@ -3368,10 +3296,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="C253" t="n">
-        <v>310</v>
+        <v>413</v>
+      </c>
+      <c r="D253" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="254">
@@ -3379,10 +3310,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>636</v>
+        <v>201</v>
       </c>
       <c r="C254" t="n">
-        <v>822</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255">
@@ -3390,10 +3321,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>839</v>
+        <v>202</v>
       </c>
       <c r="C255" t="n">
-        <v>164</v>
+        <v>577</v>
       </c>
     </row>
     <row r="256">
@@ -3401,13 +3332,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>840</v>
+        <v>636</v>
       </c>
       <c r="C256" t="n">
-        <v>713</v>
-      </c>
-      <c r="D256" t="n">
-        <v>365</v>
+        <v>760</v>
       </c>
     </row>
     <row r="257">
@@ -3415,10 +3343,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>16</v>
+        <v>839</v>
       </c>
       <c r="C257" t="n">
-        <v>247</v>
+        <v>164</v>
       </c>
     </row>
     <row r="258">
@@ -3426,13 +3354,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>513</v>
+        <v>840</v>
       </c>
       <c r="C258" t="n">
-        <v>31</v>
-      </c>
-      <c r="D258" t="n">
-        <v>32</v>
+        <v>784</v>
       </c>
     </row>
     <row r="259">
@@ -3440,10 +3365,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>514</v>
+        <v>16</v>
       </c>
       <c r="C259" t="n">
-        <v>127</v>
+        <v>704</v>
+      </c>
+      <c r="D259" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="260">
@@ -3451,10 +3379,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="C260" t="n">
-        <v>650</v>
+        <v>397</v>
       </c>
     </row>
     <row r="261">
@@ -3462,10 +3390,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C261" t="n">
-        <v>424</v>
+        <v>853</v>
       </c>
     </row>
     <row r="262">
@@ -3473,10 +3401,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C262" t="n">
-        <v>806</v>
+        <v>854</v>
       </c>
     </row>
     <row r="263">
@@ -3484,10 +3412,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>461</v>
+        <v>645</v>
       </c>
       <c r="C263" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
     </row>
     <row r="264">
@@ -3495,7 +3423,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C264" t="n">
         <v>414</v>
@@ -3506,10 +3434,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="C265" t="n">
-        <v>791</v>
+        <v>215</v>
       </c>
     </row>
     <row r="266">
@@ -3517,13 +3445,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>255</v>
+        <v>716</v>
       </c>
       <c r="C266" t="n">
-        <v>215</v>
-      </c>
-      <c r="D266" t="n">
-        <v>33</v>
+        <v>217</v>
       </c>
     </row>
     <row r="267">
@@ -3531,10 +3456,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="C267" t="n">
-        <v>847</v>
+        <v>79</v>
+      </c>
+      <c r="D267" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="268">
@@ -3553,13 +3481,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>577</v>
+        <v>423</v>
       </c>
       <c r="C269" t="n">
-        <v>216</v>
+        <v>657</v>
       </c>
       <c r="D269" t="n">
-        <v>221</v>
+        <v>529</v>
       </c>
     </row>
     <row r="270">
@@ -3567,10 +3495,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>578</v>
+        <v>424</v>
       </c>
       <c r="C270" t="n">
-        <v>171</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271">
@@ -3578,10 +3506,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>724</v>
+        <v>578</v>
       </c>
       <c r="C271" t="n">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="272">
@@ -3589,13 +3517,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>797</v>
+        <v>374</v>
       </c>
       <c r="C272" t="n">
-        <v>172</v>
+        <v>803</v>
       </c>
       <c r="D272" t="n">
-        <v>529</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273">
@@ -3603,10 +3531,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>20</v>
+        <v>822</v>
       </c>
       <c r="C273" t="n">
-        <v>193</v>
+        <v>629</v>
       </c>
     </row>
     <row r="274">
@@ -3614,10 +3542,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>21</v>
+        <v>646</v>
       </c>
       <c r="C274" t="n">
-        <v>194</v>
+        <v>310</v>
       </c>
     </row>
     <row r="275">
@@ -3625,10 +3553,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="C275" t="n">
-        <v>282</v>
+        <v>172</v>
+      </c>
+      <c r="D275" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="276">
@@ -3636,19 +3567,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>827</v>
+        <v>21</v>
       </c>
       <c r="C276" t="n">
-        <v>611</v>
-      </c>
-      <c r="D276" t="n">
-        <v>767</v>
-      </c>
-      <c r="E276" t="n">
-        <v>607</v>
-      </c>
-      <c r="F276" t="n">
-        <v>280</v>
+        <v>791</v>
       </c>
     </row>
     <row r="277">
@@ -3656,10 +3578,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>290</v>
+        <v>834</v>
       </c>
       <c r="C277" t="n">
-        <v>106</v>
+        <v>847</v>
       </c>
     </row>
     <row r="278">
@@ -3667,13 +3589,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>703</v>
+        <v>827</v>
       </c>
       <c r="C278" t="n">
-        <v>232</v>
-      </c>
-      <c r="D278" t="n">
-        <v>222</v>
+        <v>637</v>
       </c>
     </row>
     <row r="279">
@@ -3681,13 +3600,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>704</v>
+        <v>30</v>
       </c>
       <c r="C279" t="n">
-        <v>233</v>
-      </c>
-      <c r="D279" t="n">
-        <v>857</v>
+        <v>417</v>
       </c>
     </row>
     <row r="280">
@@ -3695,10 +3611,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>846</v>
+        <v>31</v>
       </c>
       <c r="C280" t="n">
-        <v>649</v>
+        <v>418</v>
       </c>
     </row>
     <row r="281">
@@ -3706,10 +3622,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>714</v>
+        <v>290</v>
       </c>
       <c r="C281" t="n">
-        <v>473</v>
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="282">
@@ -3717,16 +3636,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="C282" t="n">
-        <v>279</v>
-      </c>
-      <c r="D282" t="n">
-        <v>821</v>
-      </c>
-      <c r="E282" t="n">
-        <v>727</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283">
@@ -3734,10 +3647,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>399</v>
+        <v>757</v>
       </c>
       <c r="C283" t="n">
-        <v>775</v>
+        <v>762</v>
       </c>
     </row>
     <row r="284">
@@ -3745,10 +3658,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>400</v>
+        <v>168</v>
       </c>
       <c r="C284" t="n">
-        <v>19</v>
+        <v>666</v>
       </c>
     </row>
     <row r="285">
@@ -3756,7 +3669,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>762</v>
+        <v>713</v>
+      </c>
+      <c r="C285" t="n">
+        <v>655</v>
       </c>
     </row>
     <row r="286">
@@ -3764,10 +3680,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>18</v>
+        <v>714</v>
       </c>
       <c r="C286" t="n">
-        <v>868</v>
+        <v>656</v>
       </c>
     </row>
     <row r="287">
@@ -3775,10 +3691,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>758</v>
+        <v>621</v>
       </c>
       <c r="C287" t="n">
-        <v>612</v>
+        <v>727</v>
       </c>
     </row>
     <row r="288">
@@ -3786,10 +3702,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>784</v>
+        <v>359</v>
       </c>
       <c r="C288" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289">
@@ -3797,10 +3713,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>764</v>
+        <v>360</v>
       </c>
       <c r="C289" t="n">
-        <v>747</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290">
@@ -3808,10 +3724,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>866</v>
+        <v>399</v>
       </c>
       <c r="C290" t="n">
-        <v>519</v>
+        <v>193</v>
       </c>
     </row>
     <row r="291">
@@ -3819,10 +3735,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>867</v>
+        <v>400</v>
       </c>
       <c r="C291" t="n">
-        <v>520</v>
+        <v>775</v>
       </c>
     </row>
     <row r="292">
@@ -3830,16 +3746,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>803</v>
+        <v>18</v>
       </c>
       <c r="C292" t="n">
-        <v>475</v>
-      </c>
-      <c r="D292" t="n">
-        <v>474</v>
-      </c>
-      <c r="E292" t="n">
-        <v>34</v>
+        <v>868</v>
       </c>
     </row>
     <row r="293">
@@ -3847,10 +3757,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>666</v>
+        <v>758</v>
       </c>
       <c r="C293" t="n">
-        <v>530</v>
+        <v>612</v>
       </c>
     </row>
     <row r="294">
@@ -3858,10 +3768,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
+        <v>329</v>
+      </c>
+      <c r="C294" t="n">
         <v>667</v>
-      </c>
-      <c r="C294" t="n">
-        <v>341</v>
       </c>
     </row>
     <row r="295">
@@ -3869,10 +3779,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="C295" t="n">
-        <v>477</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -3880,10 +3790,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>218</v>
+        <v>764</v>
       </c>
       <c r="C296" t="n">
-        <v>478</v>
+        <v>751</v>
       </c>
     </row>
     <row r="297">
@@ -3891,10 +3801,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="C297" t="n">
-        <v>858</v>
+        <v>219</v>
       </c>
     </row>
     <row r="298">
@@ -3902,10 +3812,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>674</v>
+        <v>866</v>
       </c>
       <c r="C298" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299">
@@ -3913,10 +3823,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>675</v>
+        <v>867</v>
       </c>
       <c r="C299" t="n">
-        <v>691</v>
+        <v>519</v>
       </c>
     </row>
     <row r="300">
@@ -3924,10 +3834,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>349</v>
+        <v>749</v>
       </c>
       <c r="C300" t="n">
-        <v>869</v>
+        <v>823</v>
       </c>
     </row>
     <row r="301">
@@ -3935,13 +3845,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C301" t="n">
-        <v>855</v>
+        <v>368</v>
       </c>
       <c r="D301" t="n">
-        <v>676</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302">
@@ -3949,10 +3859,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C302" t="n">
-        <v>327</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303">
@@ -3960,10 +3870,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>356</v>
+        <v>674</v>
       </c>
       <c r="C303" t="n">
-        <v>328</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304">
@@ -3971,13 +3881,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>219</v>
+        <v>675</v>
       </c>
       <c r="C304" t="n">
-        <v>98</v>
-      </c>
-      <c r="D304" t="n">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305">
@@ -3985,10 +3892,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="C305" t="n">
-        <v>262</v>
+        <v>869</v>
       </c>
     </row>
     <row r="306">
@@ -3996,10 +3903,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C306" t="n">
-        <v>856</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307">
@@ -4007,13 +3914,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="C307" t="n">
-        <v>339</v>
-      </c>
-      <c r="D307" t="n">
-        <v>717</v>
+        <v>220</v>
       </c>
     </row>
     <row r="308">
@@ -4021,10 +3925,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>776</v>
+        <v>233</v>
       </c>
       <c r="C308" t="n">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="309">
@@ -4032,10 +3936,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>417</v>
+        <v>662</v>
       </c>
       <c r="C309" t="n">
-        <v>872</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310">
@@ -4043,10 +3947,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="C310" t="n">
-        <v>263</v>
+        <v>855</v>
       </c>
     </row>
     <row r="311">
@@ -4054,10 +3958,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>425</v>
+        <v>806</v>
       </c>
       <c r="C311" t="n">
-        <v>692</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312">
@@ -4065,10 +3969,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>426</v>
+        <v>776</v>
       </c>
       <c r="C312" t="n">
-        <v>173</v>
+        <v>520</v>
       </c>
     </row>
     <row r="313">
@@ -4076,7 +3980,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>48</v>
+        <v>426</v>
+      </c>
+      <c r="C313" t="n">
+        <v>98</v>
+      </c>
+      <c r="D313" t="n">
+        <v>586</v>
+      </c>
+      <c r="E313" t="n">
+        <v>501</v>
       </c>
     </row>
     <row r="314">
@@ -4084,10 +3997,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>10</v>
-      </c>
-      <c r="C314" t="n">
-        <v>301</v>
+        <v>48</v>
       </c>
     </row>
     <row r="315">
@@ -4095,10 +4005,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="C315" t="n">
-        <v>637</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316">
@@ -4106,13 +4016,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="C316" t="n">
-        <v>476</v>
-      </c>
-      <c r="D316" t="n">
-        <v>136</v>
+        <v>279</v>
       </c>
     </row>
     <row r="317">
@@ -4120,10 +4027,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C317" t="n">
-        <v>93</v>
+        <v>221</v>
       </c>
     </row>
     <row r="318">
@@ -4131,10 +4038,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="C318" t="n">
-        <v>94</v>
+        <v>222</v>
       </c>
     </row>
     <row r="319">
@@ -4142,10 +4049,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>515</v>
+        <v>658</v>
       </c>
       <c r="C319" t="n">
-        <v>415</v>
+        <v>247</v>
       </c>
     </row>
     <row r="320">
@@ -4153,10 +4060,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C320" t="n">
-        <v>416</v>
+        <v>340</v>
       </c>
     </row>
     <row r="321">
@@ -4164,7 +4071,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>635</v>
+        <v>516</v>
+      </c>
+      <c r="C321" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="322">
@@ -4172,10 +4082,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>807</v>
+        <v>635</v>
       </c>
       <c r="C322" t="n">
-        <v>569</v>
+        <v>649</v>
       </c>
     </row>
     <row r="323">
@@ -4183,10 +4093,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="C323" t="n">
-        <v>841</v>
+        <v>269</v>
       </c>
     </row>
     <row r="324">
@@ -4194,10 +4104,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C324" t="n">
-        <v>842</v>
+        <v>262</v>
       </c>
     </row>
     <row r="325">
@@ -4205,10 +4115,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>7</v>
+        <v>671</v>
       </c>
       <c r="C325" t="n">
-        <v>47</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326">
@@ -4216,7 +4126,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>606</v>
+        <v>477</v>
+      </c>
+      <c r="C326" t="n">
+        <v>568</v>
       </c>
     </row>
     <row r="327">
@@ -4224,10 +4137,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>293</v>
+        <v>478</v>
       </c>
       <c r="C327" t="n">
-        <v>297</v>
+        <v>405</v>
       </c>
     </row>
     <row r="328">
@@ -4235,13 +4148,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>570</v>
-      </c>
-      <c r="C328" t="n">
-        <v>801</v>
-      </c>
-      <c r="D328" t="n">
-        <v>541</v>
+        <v>606</v>
       </c>
     </row>
     <row r="329">
@@ -4249,10 +4156,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>792</v>
+        <v>857</v>
       </c>
       <c r="C329" t="n">
-        <v>734</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330">
@@ -4260,10 +4167,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>88</v>
+        <v>858</v>
       </c>
       <c r="C330" t="n">
-        <v>174</v>
+        <v>118</v>
       </c>
     </row>
     <row r="331">
@@ -4271,10 +4178,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>89</v>
-      </c>
-      <c r="C331" t="n">
-        <v>864</v>
+        <v>293</v>
       </c>
     </row>
     <row r="332">
@@ -4282,13 +4186,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>49</v>
+        <v>569</v>
       </c>
       <c r="C332" t="n">
-        <v>8</v>
-      </c>
-      <c r="D332" t="n">
-        <v>226</v>
+        <v>406</v>
       </c>
     </row>
     <row r="333">
@@ -4296,10 +4197,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>785</v>
+        <v>570</v>
       </c>
       <c r="C333" t="n">
-        <v>735</v>
+        <v>817</v>
       </c>
     </row>
     <row r="334">
@@ -4307,10 +4208,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>626</v>
+        <v>792</v>
       </c>
       <c r="C334" t="n">
-        <v>768</v>
+        <v>734</v>
       </c>
     </row>
     <row r="335">
@@ -4318,10 +4219,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>342</v>
+        <v>856</v>
       </c>
       <c r="C335" t="n">
-        <v>677</v>
+        <v>816</v>
+      </c>
+      <c r="D335" t="n">
+        <v>865</v>
       </c>
     </row>
     <row r="336">
@@ -4329,13 +4233,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>693</v>
+        <v>89</v>
       </c>
       <c r="C336" t="n">
-        <v>41</v>
+        <v>841</v>
       </c>
       <c r="D336" t="n">
-        <v>337</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337">
@@ -4343,13 +4247,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>694</v>
+        <v>327</v>
       </c>
       <c r="C337" t="n">
-        <v>42</v>
-      </c>
-      <c r="D337" t="n">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338">
@@ -4357,7 +4258,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>753</v>
+        <v>328</v>
+      </c>
+      <c r="C338" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="339">
@@ -4365,10 +4269,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>117</v>
-      </c>
-      <c r="C339" t="n">
-        <v>531</v>
+        <v>49</v>
       </c>
     </row>
     <row r="340">
@@ -4376,10 +4277,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>118</v>
+        <v>785</v>
       </c>
       <c r="C340" t="n">
-        <v>532</v>
+        <v>416</v>
       </c>
     </row>
     <row r="341">
@@ -4387,7 +4288,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>754</v>
+        <v>626</v>
+      </c>
+      <c r="C341" t="n">
+        <v>767</v>
+      </c>
+      <c r="D341" t="n">
+        <v>622</v>
       </c>
     </row>
     <row r="342">
@@ -4395,7 +4302,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>270</v>
+        <v>872</v>
+      </c>
+      <c r="C342" t="n">
+        <v>843</v>
       </c>
     </row>
     <row r="343">
@@ -4403,10 +4313,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>870</v>
+        <v>761</v>
       </c>
       <c r="C343" t="n">
-        <v>453</v>
+        <v>821</v>
       </c>
     </row>
     <row r="344">
@@ -4414,10 +4324,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>871</v>
+        <v>341</v>
       </c>
       <c r="C344" t="n">
-        <v>454</v>
+        <v>676</v>
       </c>
     </row>
     <row r="345">
@@ -4425,10 +4335,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>567</v>
+        <v>342</v>
       </c>
       <c r="C345" t="n">
-        <v>43</v>
+        <v>677</v>
       </c>
     </row>
     <row r="346">
@@ -4436,10 +4346,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>568</v>
+        <v>693</v>
       </c>
       <c r="C346" t="n">
-        <v>44</v>
+        <v>735</v>
       </c>
     </row>
     <row r="347">
@@ -4447,10 +4357,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>325</v>
+        <v>694</v>
       </c>
       <c r="C347" t="n">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="348">
@@ -4458,10 +4368,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="C348" t="n">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="349">
@@ -4469,10 +4379,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>539</v>
-      </c>
-      <c r="C349" t="n">
-        <v>780</v>
+        <v>754</v>
       </c>
     </row>
     <row r="350">
@@ -4480,13 +4387,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>540</v>
-      </c>
-      <c r="C350" t="n">
-        <v>375</v>
-      </c>
-      <c r="D350" t="n">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351">
@@ -4494,10 +4395,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="C351" t="n">
-        <v>817</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352">
@@ -4505,10 +4406,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>405</v>
+        <v>871</v>
       </c>
       <c r="C352" t="n">
-        <v>808</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353">
@@ -4516,10 +4417,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>406</v>
+        <v>801</v>
       </c>
       <c r="C353" t="n">
-        <v>333</v>
+        <v>93</v>
       </c>
     </row>
     <row r="354">
@@ -4527,10 +4428,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>695</v>
+        <v>842</v>
       </c>
       <c r="C354" t="n">
-        <v>80</v>
+        <v>543</v>
       </c>
     </row>
     <row r="355">
@@ -4538,10 +4439,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C355" t="n">
-        <v>81</v>
+        <v>695</v>
       </c>
     </row>
     <row r="356">
@@ -4549,10 +4450,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="C356" t="n">
-        <v>22</v>
+        <v>696</v>
       </c>
     </row>
     <row r="357">
@@ -4560,10 +4461,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C357" t="n">
-        <v>663</v>
+        <v>780</v>
       </c>
     </row>
     <row r="358">
@@ -4571,13 +4472,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C358" t="n">
-        <v>23</v>
-      </c>
-      <c r="D358" t="n">
-        <v>738</v>
+        <v>91</v>
       </c>
     </row>
     <row r="359">
@@ -4585,10 +4483,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C359" t="n">
-        <v>185</v>
+        <v>717</v>
       </c>
     </row>
     <row r="360">
@@ -4596,10 +4494,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="C360" t="n">
-        <v>376</v>
+        <v>718</v>
       </c>
     </row>
     <row r="361">
@@ -4607,10 +4505,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>138</v>
+        <v>474</v>
       </c>
       <c r="C361" t="n">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="362">
@@ -4618,7 +4516,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>759</v>
+        <v>765</v>
+      </c>
+      <c r="C362" t="n">
+        <v>614</v>
       </c>
     </row>
     <row r="363">
@@ -4626,10 +4527,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="C363" t="n">
-        <v>92</v>
+        <v>463</v>
       </c>
     </row>
     <row r="364">
@@ -4637,10 +4538,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="C364" t="n">
-        <v>207</v>
+        <v>464</v>
       </c>
     </row>
     <row r="365">
@@ -4648,10 +4549,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>843</v>
+        <v>47</v>
       </c>
       <c r="C365" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="366">
@@ -4659,10 +4560,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>844</v>
+        <v>652</v>
       </c>
       <c r="C366" t="n">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="367">
@@ -4670,10 +4571,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C367" t="n">
-        <v>445</v>
+        <v>544</v>
       </c>
     </row>
     <row r="368">
@@ -4681,10 +4582,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C368" t="n">
-        <v>446</v>
+        <v>137</v>
       </c>
     </row>
     <row r="369">
@@ -4692,10 +4593,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>99</v>
+        <v>541</v>
       </c>
       <c r="C369" t="n">
-        <v>35</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370">
@@ -4703,10 +4604,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>718</v>
+        <v>542</v>
       </c>
       <c r="C370" t="n">
-        <v>818</v>
+        <v>43</v>
+      </c>
+      <c r="D370" t="n">
+        <v>124</v>
+      </c>
+      <c r="E370" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="371">
@@ -4714,7 +4621,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>571</v>
+        <v>173</v>
+      </c>
+      <c r="C371" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="372">
@@ -4722,7 +4632,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>572</v>
+        <v>174</v>
       </c>
     </row>
     <row r="373">
@@ -4730,10 +4640,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>585</v>
+        <v>138</v>
       </c>
       <c r="C373" t="n">
-        <v>240</v>
+        <v>864</v>
       </c>
     </row>
     <row r="374">
@@ -4741,10 +4651,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>586</v>
+        <v>44</v>
       </c>
       <c r="C374" t="n">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375">
@@ -4752,10 +4662,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>45</v>
+        <v>759</v>
       </c>
       <c r="C375" t="n">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
     <row r="376">
@@ -4763,7 +4673,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>46</v>
+        <v>455</v>
+      </c>
+      <c r="C376" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="377">
@@ -4771,10 +4684,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>719</v>
+        <v>456</v>
       </c>
       <c r="C377" t="n">
-        <v>517</v>
+        <v>185</v>
       </c>
     </row>
     <row r="378">
@@ -4782,10 +4695,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>720</v>
+        <v>844</v>
       </c>
       <c r="C378" t="n">
-        <v>518</v>
+        <v>207</v>
       </c>
     </row>
     <row r="379">
@@ -4793,10 +4706,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>13</v>
+        <v>571</v>
       </c>
       <c r="C379" t="n">
-        <v>501</v>
+        <v>683</v>
       </c>
     </row>
     <row r="380">
@@ -4804,7 +4717,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>622</v>
+        <v>572</v>
+      </c>
+      <c r="C380" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="381">
@@ -4812,10 +4728,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="C381" t="n">
-        <v>502</v>
+        <v>186</v>
       </c>
     </row>
     <row r="382">
@@ -4823,10 +4739,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="C382" t="n">
-        <v>119</v>
+        <v>333</v>
       </c>
     </row>
     <row r="383">
@@ -4834,7 +4750,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>865</v>
+        <v>607</v>
+      </c>
+      <c r="C383" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="384">
@@ -4842,10 +4761,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>165</v>
+        <v>719</v>
       </c>
       <c r="C384" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="385">
@@ -4853,10 +4772,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>166</v>
+        <v>720</v>
       </c>
       <c r="C385" t="n">
-        <v>139</v>
+        <v>241</v>
       </c>
     </row>
     <row r="386">
@@ -4864,10 +4783,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>683</v>
+        <v>13</v>
       </c>
       <c r="C386" t="n">
-        <v>235</v>
+        <v>517</v>
       </c>
     </row>
     <row r="387">
@@ -4875,10 +4794,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="C387" t="n">
-        <v>140</v>
+        <v>777</v>
       </c>
     </row>
     <row r="388">
@@ -4886,10 +4805,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>224</v>
+        <v>808</v>
       </c>
       <c r="C388" t="n">
-        <v>104</v>
+        <v>331</v>
       </c>
     </row>
     <row r="389">
@@ -4897,7 +4816,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>268</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390">
@@ -4905,10 +4824,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>298</v>
+        <v>663</v>
       </c>
       <c r="C390" t="n">
-        <v>647</v>
+        <v>534</v>
       </c>
     </row>
     <row r="391">
@@ -4916,10 +4835,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="C391" t="n">
-        <v>105</v>
+        <v>332</v>
       </c>
     </row>
     <row r="392">
@@ -4927,7 +4846,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>285</v>
+        <v>599</v>
+      </c>
+      <c r="C392" t="n">
+        <v>518</v>
       </c>
     </row>
     <row r="393">
@@ -4935,10 +4857,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="C393" t="n">
-        <v>419</v>
+        <v>120</v>
       </c>
     </row>
     <row r="394">
@@ -4946,7 +4868,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>177</v>
+        <v>375</v>
+      </c>
+      <c r="C394" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="395">
@@ -4954,7 +4879,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>178</v>
+        <v>376</v>
+      </c>
+      <c r="C395" t="n">
+        <v>234</v>
+      </c>
+      <c r="D395" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="396">
@@ -4962,7 +4893,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>828</v>
+        <v>818</v>
+      </c>
+      <c r="C396" t="n">
+        <v>533</v>
       </c>
     </row>
     <row r="397">
@@ -4970,7 +4904,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>627</v>
+        <v>165</v>
+      </c>
+      <c r="C397" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="398">
@@ -4978,7 +4915,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>766</v>
+        <v>166</v>
+      </c>
+      <c r="C398" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="399">
@@ -4986,7 +4926,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>678</v>
+        <v>223</v>
+      </c>
+      <c r="C399" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="400">
@@ -4994,7 +4937,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>679</v>
+        <v>224</v>
+      </c>
+      <c r="C400" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="401">
@@ -5002,7 +4948,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>311</v>
+        <v>268</v>
       </c>
     </row>
     <row r="402">
@@ -5010,7 +4956,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>331</v>
+        <v>208</v>
+      </c>
+      <c r="C402" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="403">
@@ -5018,7 +4967,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>332</v>
+        <v>34</v>
       </c>
     </row>
     <row r="404">
@@ -5026,10 +4975,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>533</v>
-      </c>
-      <c r="C404" t="n">
-        <v>420</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405">
@@ -5037,7 +4983,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>534</v>
+        <v>298</v>
+      </c>
+      <c r="C405" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="406">
@@ -5045,7 +4994,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407">
@@ -5053,7 +5002,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>176</v>
+        <v>285</v>
       </c>
     </row>
     <row r="408">
@@ -5061,7 +5010,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>383</v>
+        <v>178</v>
       </c>
     </row>
     <row r="409">
@@ -5069,7 +5018,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>384</v>
+        <v>828</v>
       </c>
     </row>
     <row r="410">
@@ -5077,7 +5026,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>82</v>
+        <v>235</v>
       </c>
     </row>
     <row r="411">
@@ -5085,7 +5034,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>83</v>
+        <v>627</v>
       </c>
     </row>
     <row r="412">
@@ -5093,7 +5042,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>227</v>
+        <v>766</v>
       </c>
     </row>
     <row r="413">
@@ -5101,7 +5050,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>203</v>
+        <v>678</v>
       </c>
     </row>
     <row r="414">
@@ -5109,87 +5058,138 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>204</v>
+        <v>679</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
         <v>414</v>
       </c>
+      <c r="B415" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
         <v>415</v>
       </c>
+      <c r="B416" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
         <v>416</v>
       </c>
+      <c r="B417" t="n">
+        <v>502</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
         <v>417</v>
       </c>
+      <c r="B418" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
         <v>418</v>
       </c>
+      <c r="B419" t="n">
+        <v>81</v>
+      </c>
+      <c r="C419" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
         <v>419</v>
       </c>
+      <c r="B420" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
         <v>420</v>
       </c>
+      <c r="B421" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
         <v>421</v>
       </c>
+      <c r="B422" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
         <v>422</v>
       </c>
+      <c r="B423" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
         <v>423</v>
       </c>
+      <c r="B424" t="n">
+        <v>805</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
         <v>424</v>
       </c>
+      <c r="B425" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
         <v>425</v>
       </c>
+      <c r="B426" t="n">
+        <v>738</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
         <v>426</v>
       </c>
+      <c r="B427" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
         <v>427</v>
       </c>
+      <c r="B428" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
         <v>428</v>
       </c>
+      <c r="B429" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
         <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>446</v>
       </c>
     </row>
     <row r="431">
